--- a/sheets/omegalul.xlsx
+++ b/sheets/omegalul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1311FE-E66F-4670-9699-97592CB25EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB1D40-DB1D-4BB8-8BC0-C908CB3B5DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Gejars</t>
-  </si>
-  <si>
-    <t>Cirvis</t>
-  </si>
-  <si>
-    <t>Bomars</t>
-  </si>
-  <si>
-    <t>Cilveki</t>
-  </si>
-  <si>
-    <t>Nauda</t>
-  </si>
-  <si>
-    <t>Durvis</t>
-  </si>
-  <si>
-    <t>Piena litri</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Kab</t>
+  </si>
+  <si>
+    <t>Sakuma laiks</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>Stundas</t>
+  </si>
+  <si>
+    <t>23-20</t>
+  </si>
+  <si>
+    <t>21-17</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>Anglu val.</t>
+  </si>
+  <si>
+    <t>Ķīmija</t>
+  </si>
+  <si>
+    <t>Latviešu val.</t>
+  </si>
+  <si>
+    <t>22-30</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -363,68 +376,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="C5" s="1">
+        <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>351</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>
